--- a/Libro1 - copia.xlsx
+++ b/Libro1 - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\GitHub\heroku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CB5F98-859F-4789-9DC4-96B19CD7A8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D470A9B-B694-4B99-88AF-3E74BE5080D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08B114C0-AE78-4B0F-A60E-54967A97ED23}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="445">
   <si>
     <t>COD_REGION</t>
   </si>
@@ -1366,6 +1366,9 @@
   <si>
     <t>ALTO BIOBÃO</t>
   </si>
+  <si>
+    <t>color</t>
+  </si>
 </sst>
 </file>
 
@@ -1438,10 +1441,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1756,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565D217D-3BEC-4D7C-8F40-9B0EBC5A66D9}">
-  <dimension ref="A1:BC346"/>
+  <dimension ref="A1:BD346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,7 +1771,7 @@
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1933,8 +1937,11 @@
       <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="3" t="s">
+        <v>444</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2100,8 +2107,12 @@
       <c r="BC2">
         <v>-70.041538352000046</v>
       </c>
+      <c r="BD2" t="str">
+        <f>IF(I2&gt;J2, "#1381c0", "#f632a3")</f>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2267,8 +2278,12 @@
       <c r="BC3">
         <v>-70.010962143800029</v>
       </c>
+      <c r="BD3" t="str">
+        <f t="shared" ref="BD3:BD66" si="0">IF(I3&gt;J3, "#1381c0", "#f632a3")</f>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2434,8 +2449,12 @@
       <c r="BC4">
         <v>-69.504236299100029</v>
       </c>
+      <c r="BD4" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2601,8 +2620,12 @@
       <c r="BC5">
         <v>-69.505339119200002</v>
       </c>
+      <c r="BD5" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2768,8 +2791,12 @@
       <c r="BC6">
         <v>-68.844218876200017</v>
       </c>
+      <c r="BD6" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2935,8 +2962,12 @@
       <c r="BC7">
         <v>-69.66289650530004</v>
       </c>
+      <c r="BD7" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3102,8 +3133,12 @@
       <c r="BC8">
         <v>-68.912203129299996</v>
       </c>
+      <c r="BD8" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3269,8 +3304,12 @@
       <c r="BC9">
         <v>-69.41008865569988</v>
       </c>
+      <c r="BD9" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3436,8 +3475,12 @@
       <c r="BC10">
         <v>-70.203045794499999</v>
       </c>
+      <c r="BD10" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3603,8 +3646,12 @@
       <c r="BC11">
         <v>-69.305567098799997</v>
       </c>
+      <c r="BD11" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3770,8 +3817,12 @@
       <c r="BC12">
         <v>-69.865204021499963</v>
       </c>
+      <c r="BD12" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3937,8 +3988,12 @@
       <c r="BC13">
         <v>-68.629709824599999</v>
       </c>
+      <c r="BD13" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4104,8 +4159,12 @@
       <c r="BC14">
         <v>-68.313257986200014</v>
       </c>
+      <c r="BD14" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4271,8 +4330,12 @@
       <c r="BC15">
         <v>-67.909398378299997</v>
       </c>
+      <c r="BD15" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4438,8 +4501,12 @@
       <c r="BC16">
         <v>-70.021224455799981</v>
       </c>
+      <c r="BD16" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4605,8 +4672,12 @@
       <c r="BC17">
         <v>-69.467067474599986</v>
       </c>
+      <c r="BD17" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -4772,8 +4843,12 @@
       <c r="BC18">
         <v>-69.825471649999869</v>
       </c>
+      <c r="BD18" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -4939,8 +5014,12 @@
       <c r="BC19">
         <v>-70.68213358909999</v>
       </c>
+      <c r="BD19" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5106,8 +5185,12 @@
       <c r="BC20">
         <v>-69.670693015000012</v>
       </c>
+      <c r="BD20" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5273,8 +5356,12 @@
       <c r="BC21">
         <v>-70.337974606799946</v>
       </c>
+      <c r="BD21" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5440,8 +5527,12 @@
       <c r="BC22">
         <v>-69.186038925799963</v>
       </c>
+      <c r="BD22" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5607,8 +5698,12 @@
       <c r="BC23">
         <v>-70.601729962700091</v>
       </c>
+      <c r="BD23" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -5774,8 +5869,12 @@
       <c r="BC24">
         <v>-70.156422888099954</v>
       </c>
+      <c r="BD24" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5941,8 +6040,12 @@
       <c r="BC25">
         <v>-71.178820180600013</v>
       </c>
+      <c r="BD25" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -6108,8 +6211,12 @@
       <c r="BC26">
         <v>-71.028098076599989</v>
       </c>
+      <c r="BD26" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -6275,8 +6382,12 @@
       <c r="BC27">
         <v>-71.060820861899842</v>
       </c>
+      <c r="BD27" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -6442,8 +6553,12 @@
       <c r="BC28">
         <v>-71.358987198699907</v>
       </c>
+      <c r="BD28" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -6609,8 +6724,12 @@
       <c r="BC29">
         <v>-71.100637765900018</v>
       </c>
+      <c r="BD29" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -6776,8 +6895,12 @@
       <c r="BC30">
         <v>-70.902564879799968</v>
       </c>
+      <c r="BD30" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6943,8 +7066,12 @@
       <c r="BC31">
         <v>-70.369747021900011</v>
       </c>
+      <c r="BD31" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -7110,8 +7237,12 @@
       <c r="BC32">
         <v>-70.381457830900132</v>
       </c>
+      <c r="BD32" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -7277,8 +7408,12 @@
       <c r="BC33">
         <v>-70.970568260499959</v>
       </c>
+      <c r="BD33" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -7444,8 +7579,12 @@
       <c r="BC34">
         <v>-71.394384198600051</v>
       </c>
+      <c r="BD34" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -7611,8 +7750,12 @@
       <c r="BC35">
         <v>-71.304254567699942</v>
       </c>
+      <c r="BD35" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -7778,8 +7921,12 @@
       <c r="BC36">
         <v>-70.661908575300004</v>
       </c>
+      <c r="BD36" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -7945,8 +8092,12 @@
       <c r="BC37">
         <v>-71.405305430600038</v>
       </c>
+      <c r="BD37" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -8112,8 +8263,12 @@
       <c r="BC38">
         <v>-70.965735649199928</v>
       </c>
+      <c r="BD38" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -8279,8 +8434,12 @@
       <c r="BC39">
         <v>-70.650608689000137</v>
       </c>
+      <c r="BD39" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -8446,8 +8605,12 @@
       <c r="BC40">
         <v>-71.332627402299991</v>
       </c>
+      <c r="BD40" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -8613,8 +8776,12 @@
       <c r="BC41">
         <v>-70.653739198000025</v>
       </c>
+      <c r="BD41" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -8780,8 +8947,12 @@
       <c r="BC42">
         <v>-71.753339855300055</v>
       </c>
+      <c r="BD42" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -8947,8 +9118,12 @@
       <c r="BC43">
         <v>-71.434979094599939</v>
       </c>
+      <c r="BD43" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -9114,8 +9289,12 @@
       <c r="BC44">
         <v>-71.467867008300004</v>
       </c>
+      <c r="BD44" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -9281,8 +9460,12 @@
       <c r="BC45">
         <v>-79.870177262300004</v>
       </c>
+      <c r="BD45" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -9448,8 +9631,12 @@
       <c r="BC46">
         <v>-71.387923010099982</v>
       </c>
+      <c r="BD46" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -9615,8 +9802,12 @@
       <c r="BC47">
         <v>-71.473230459200025</v>
       </c>
+      <c r="BD47" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -9782,8 +9973,12 @@
       <c r="BC48">
         <v>-71.515431215700104</v>
       </c>
+      <c r="BD48" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5</v>
       </c>
@@ -9949,8 +10144,12 @@
       <c r="BC49">
         <v>-109.477524207</v>
       </c>
+      <c r="BD49" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
@@ -10116,8 +10315,12 @@
       <c r="BC50">
         <v>-70.243562478499996</v>
       </c>
+      <c r="BD50" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5</v>
       </c>
@@ -10283,8 +10486,12 @@
       <c r="BC51">
         <v>-70.544659459000044</v>
       </c>
+      <c r="BD51" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -10450,8 +10657,12 @@
       <c r="BC52">
         <v>-70.706197553099997</v>
       </c>
+      <c r="BD52" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5</v>
       </c>
@@ -10617,8 +10828,12 @@
       <c r="BC53">
         <v>-70.347758526100023</v>
       </c>
+      <c r="BD53" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -10784,8 +10999,12 @@
       <c r="BC54">
         <v>-71.271701602299984</v>
       </c>
+      <c r="BD54" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -10951,8 +11170,12 @@
       <c r="BC55">
         <v>-70.823535812900005</v>
       </c>
+      <c r="BD55" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -11118,8 +11341,12 @@
       <c r="BC56">
         <v>-71.380327808299981</v>
       </c>
+      <c r="BD56" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -11285,8 +11512,12 @@
       <c r="BC57">
         <v>-70.869906028000045</v>
       </c>
+      <c r="BD57" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -11452,8 +11683,12 @@
       <c r="BC58">
         <v>-71.336277620199994</v>
       </c>
+      <c r="BD58" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
@@ -11619,8 +11854,12 @@
       <c r="BC59">
         <v>-71.272421041499953</v>
       </c>
+      <c r="BD59" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -11786,8 +12025,12 @@
       <c r="BC60">
         <v>-71.157053148999992</v>
       </c>
+      <c r="BD60" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -11953,8 +12196,12 @@
       <c r="BC61">
         <v>-71.081110774699965</v>
       </c>
+      <c r="BD61" t="str">
+        <f t="shared" si="0"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -12120,8 +12367,12 @@
       <c r="BC62">
         <v>-71.240478700400004</v>
       </c>
+      <c r="BD62" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -12287,8 +12538,12 @@
       <c r="BC63">
         <v>-71.176101879799972</v>
       </c>
+      <c r="BD63" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -12454,8 +12709,12 @@
       <c r="BC64">
         <v>-71.486930528099961</v>
       </c>
+      <c r="BD64" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5</v>
       </c>
@@ -12621,8 +12880,12 @@
       <c r="BC65">
         <v>-71.599395646700017</v>
       </c>
+      <c r="BD65" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
@@ -12788,8 +13051,12 @@
       <c r="BC66">
         <v>-71.442208211700034</v>
       </c>
+      <c r="BD66" t="str">
+        <f t="shared" si="0"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5</v>
       </c>
@@ -12955,8 +13222,12 @@
       <c r="BC67">
         <v>-71.651188755999996</v>
       </c>
+      <c r="BD67" t="str">
+        <f t="shared" ref="BD67:BD130" si="1">IF(I67&gt;J67, "#1381c0", "#f632a3")</f>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -13122,8 +13393,12 @@
       <c r="BC68">
         <v>-71.580634354600008</v>
       </c>
+      <c r="BD68" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -13289,8 +13564,12 @@
       <c r="BC69">
         <v>-71.676511014100001</v>
       </c>
+      <c r="BD69" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -13456,8 +13735,12 @@
       <c r="BC70">
         <v>-70.752958356799923</v>
       </c>
+      <c r="BD70" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -13623,8 +13906,12 @@
       <c r="BC71">
         <v>-70.944638802300005</v>
       </c>
+      <c r="BD71" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -13790,8 +14077,12 @@
       <c r="BC72">
         <v>-70.901732637099968</v>
       </c>
+      <c r="BD72" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -13957,8 +14248,12 @@
       <c r="BC73">
         <v>-70.828312224800001</v>
       </c>
+      <c r="BD73" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -14124,8 +14419,12 @@
       <c r="BC74">
         <v>-70.521230234900017</v>
       </c>
+      <c r="BD74" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5</v>
       </c>
@@ -14291,8 +14590,12 @@
       <c r="BC75">
         <v>-70.609702659299984</v>
       </c>
+      <c r="BD75" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -14458,8 +14761,12 @@
       <c r="BC76">
         <v>-71.25409171369995</v>
       </c>
+      <c r="BD76" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5</v>
       </c>
@@ -14625,8 +14932,12 @@
       <c r="BC77">
         <v>-71.278911769099992</v>
       </c>
+      <c r="BD77" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -14792,8 +15103,12 @@
       <c r="BC78">
         <v>-71.110433810200007</v>
       </c>
+      <c r="BD78" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5</v>
       </c>
@@ -14959,8 +15274,12 @@
       <c r="BC79">
         <v>-71.33016350199992</v>
       </c>
+      <c r="BD79" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
@@ -15126,8 +15445,12 @@
       <c r="BC80">
         <v>-70.816747871999922</v>
       </c>
+      <c r="BD80" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -15293,8 +15616,12 @@
       <c r="BC81">
         <v>-70.547188351999992</v>
       </c>
+      <c r="BD81" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6</v>
       </c>
@@ -15460,8 +15787,12 @@
       <c r="BC82">
         <v>-70.971104579999988</v>
       </c>
+      <c r="BD82" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
@@ -15627,8 +15958,12 @@
       <c r="BC83">
         <v>-71.07756082059997</v>
       </c>
+      <c r="BD83" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6</v>
       </c>
@@ -15794,8 +16129,12 @@
       <c r="BC84">
         <v>-70.923634825500002</v>
       </c>
+      <c r="BD84" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -15961,8 +16300,12 @@
       <c r="BC85">
         <v>-70.747071457700017</v>
       </c>
+      <c r="BD85" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -16128,8 +16471,12 @@
       <c r="BC86">
         <v>-71.332781342300038</v>
       </c>
+      <c r="BD86" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -16295,8 +16642,12 @@
       <c r="BC87">
         <v>-70.319487194999979</v>
       </c>
+      <c r="BD87" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -16462,8 +16813,12 @@
       <c r="BC88">
         <v>-70.872917044599959</v>
       </c>
+      <c r="BD88" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6</v>
       </c>
@@ -16629,8 +16984,12 @@
       <c r="BC89">
         <v>-70.568811924699972</v>
       </c>
+      <c r="BD89" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
@@ -16796,8 +17155,12 @@
       <c r="BC90">
         <v>-70.821099825899992</v>
       </c>
+      <c r="BD90" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6</v>
       </c>
@@ -16963,8 +17326,12 @@
       <c r="BC91">
         <v>-71.221881336199999</v>
       </c>
+      <c r="BD91" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6</v>
       </c>
@@ -17130,8 +17497,12 @@
       <c r="BC92">
         <v>-71.339092236999988</v>
       </c>
+      <c r="BD92" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -17297,8 +17668,12 @@
       <c r="BC93">
         <v>-70.998067283399976</v>
       </c>
+      <c r="BD93" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6</v>
       </c>
@@ -17464,8 +17839,12 @@
       <c r="BC94">
         <v>-70.718956870399879</v>
       </c>
+      <c r="BD94" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6</v>
       </c>
@@ -17631,8 +18010,12 @@
       <c r="BC95">
         <v>-70.659196161800025</v>
       </c>
+      <c r="BD95" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -17798,8 +18181,12 @@
       <c r="BC96">
         <v>-71.123127304999898</v>
       </c>
+      <c r="BD96" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -17965,8 +18352,12 @@
       <c r="BC97">
         <v>-71.910690293499997</v>
       </c>
+      <c r="BD97" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6</v>
       </c>
@@ -18132,8 +18523,12 @@
       <c r="BC98">
         <v>-71.602551370699999</v>
       </c>
+      <c r="BD98" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6</v>
       </c>
@@ -18299,8 +18694,12 @@
       <c r="BC99">
         <v>-71.73309143639996</v>
       </c>
+      <c r="BD99" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6</v>
       </c>
@@ -18466,8 +18865,12 @@
       <c r="BC100">
         <v>-71.671764866699988</v>
       </c>
+      <c r="BD100" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6</v>
       </c>
@@ -18633,8 +19036,12 @@
       <c r="BC101">
         <v>-71.820769024399965</v>
       </c>
+      <c r="BD101" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6</v>
       </c>
@@ -18800,8 +19207,12 @@
       <c r="BC102">
         <v>-71.911537709800029</v>
       </c>
+      <c r="BD102" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
@@ -18967,8 +19378,12 @@
       <c r="BC103">
         <v>-70.603286818100045</v>
       </c>
+      <c r="BD103" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>6</v>
       </c>
@@ -19134,8 +19549,12 @@
       <c r="BC104">
         <v>-71.359739361900054</v>
       </c>
+      <c r="BD104" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
@@ -19301,8 +19720,12 @@
       <c r="BC105">
         <v>-70.98087995290004</v>
       </c>
+      <c r="BD105" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>6</v>
       </c>
@@ -19468,8 +19891,12 @@
       <c r="BC106">
         <v>-71.648832455399997</v>
       </c>
+      <c r="BD106" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6</v>
       </c>
@@ -19635,8 +20062,12 @@
       <c r="BC107">
         <v>-71.19197131739999</v>
       </c>
+      <c r="BD107" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6</v>
       </c>
@@ -19802,8 +20233,12 @@
       <c r="BC108">
         <v>-71.352913090200033</v>
       </c>
+      <c r="BD108" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="109" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6</v>
       </c>
@@ -19969,8 +20404,12 @@
       <c r="BC109">
         <v>-71.496680472200012</v>
       </c>
+      <c r="BD109" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -20136,8 +20575,12 @@
       <c r="BC110">
         <v>-71.086309447199966</v>
       </c>
+      <c r="BD110" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="111" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6</v>
       </c>
@@ -20303,8 +20746,12 @@
       <c r="BC111">
         <v>-71.691772169499984</v>
       </c>
+      <c r="BD111" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="112" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -20470,8 +20917,12 @@
       <c r="BC112">
         <v>-71.40191902049996</v>
       </c>
+      <c r="BD112" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="113" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7</v>
       </c>
@@ -20637,8 +21088,12 @@
       <c r="BC113">
         <v>-71.602197597900101</v>
       </c>
+      <c r="BD113" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="114" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
@@ -20804,8 +21259,12 @@
       <c r="BC114">
         <v>-72.275799010799958</v>
       </c>
+      <c r="BD114" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="115" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>7</v>
       </c>
@@ -20971,8 +21430,12 @@
       <c r="BC115">
         <v>-71.952980136500031</v>
       </c>
+      <c r="BD115" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="116" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7</v>
       </c>
@@ -21138,8 +21601,12 @@
       <c r="BC116">
         <v>-72.284386518999995</v>
       </c>
+      <c r="BD116" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="117" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>7</v>
       </c>
@@ -21305,8 +21772,12 @@
       <c r="BC117">
         <v>-71.712054169399948</v>
       </c>
+      <c r="BD117" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="118" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7</v>
       </c>
@@ -21472,8 +21943,12 @@
       <c r="BC118">
         <v>-71.350029207800006</v>
       </c>
+      <c r="BD118" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="119" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7</v>
       </c>
@@ -21639,8 +22114,12 @@
       <c r="BC119">
         <v>-71.816173816599999</v>
       </c>
+      <c r="BD119" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="120" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7</v>
       </c>
@@ -21806,8 +22285,12 @@
       <c r="BC120">
         <v>-71.26886210610003</v>
       </c>
+      <c r="BD120" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="121" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>7</v>
       </c>
@@ -21973,8 +22456,12 @@
       <c r="BC121">
         <v>-70.849781773599972</v>
       </c>
+      <c r="BD121" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="122" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7</v>
       </c>
@@ -22140,8 +22627,12 @@
       <c r="BC122">
         <v>-71.500474380299991</v>
       </c>
+      <c r="BD122" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="123" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7</v>
       </c>
@@ -22307,8 +22798,12 @@
       <c r="BC123">
         <v>-72.280490538500075</v>
       </c>
+      <c r="BD123" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="124" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7</v>
       </c>
@@ -22474,8 +22969,12 @@
       <c r="BC124">
         <v>-72.485022568399955</v>
       </c>
+      <c r="BD124" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="125" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -22641,8 +23140,12 @@
       <c r="BC125">
         <v>-72.607409265699985</v>
       </c>
+      <c r="BD125" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="126" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -22808,8 +23311,12 @@
       <c r="BC126">
         <v>-70.897370775700153</v>
       </c>
+      <c r="BD126" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="127" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
@@ -22975,8 +23482,12 @@
       <c r="BC127">
         <v>-71.708793948600018</v>
       </c>
+      <c r="BD127" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="128" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>7</v>
       </c>
@@ -23142,8 +23653,12 @@
       <c r="BC128">
         <v>-72.06032911600002</v>
       </c>
+      <c r="BD128" t="str">
+        <f t="shared" si="1"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="129" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7</v>
       </c>
@@ -23309,8 +23824,12 @@
       <c r="BC129">
         <v>-70.910922384300065</v>
       </c>
+      <c r="BD129" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="130" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
@@ -23476,8 +23995,12 @@
       <c r="BC130">
         <v>-71.425765570299987</v>
       </c>
+      <c r="BD130" t="str">
+        <f t="shared" si="1"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="131" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>7</v>
       </c>
@@ -23643,8 +24166,12 @@
       <c r="BC131">
         <v>-70.712024861999964</v>
       </c>
+      <c r="BD131" t="str">
+        <f t="shared" ref="BD131:BD194" si="2">IF(I131&gt;J131, "#1381c0", "#f632a3")</f>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="132" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7</v>
       </c>
@@ -23810,8 +24337,12 @@
       <c r="BC132">
         <v>-71.495698971999957</v>
       </c>
+      <c r="BD132" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="133" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>7</v>
       </c>
@@ -23977,8 +24508,12 @@
       <c r="BC133">
         <v>-71.021839334399942</v>
       </c>
+      <c r="BD133" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="134" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
@@ -24144,8 +24679,12 @@
       <c r="BC134">
         <v>-72.022531026500005</v>
       </c>
+      <c r="BD134" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="135" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>7</v>
       </c>
@@ -24311,8 +24850,12 @@
       <c r="BC135">
         <v>-71.33256713890016</v>
       </c>
+      <c r="BD135" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="136" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>7</v>
       </c>
@@ -24478,8 +25021,12 @@
       <c r="BC136">
         <v>-70.980174242100006</v>
       </c>
+      <c r="BD136" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="137" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7</v>
       </c>
@@ -24645,8 +25192,12 @@
       <c r="BC137">
         <v>-71.441960937399955</v>
       </c>
+      <c r="BD137" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="138" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>7</v>
       </c>
@@ -24812,8 +25363,12 @@
       <c r="BC138">
         <v>-71.646628858899945</v>
       </c>
+      <c r="BD138" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="139" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>7</v>
       </c>
@@ -24979,8 +25534,12 @@
       <c r="BC139">
         <v>-71.829945807100046</v>
       </c>
+      <c r="BD139" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="140" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>7</v>
       </c>
@@ -25146,8 +25705,12 @@
       <c r="BC140">
         <v>-71.927073473800107</v>
       </c>
+      <c r="BD140" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="141" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>7</v>
       </c>
@@ -25313,8 +25876,12 @@
       <c r="BC141">
         <v>-71.682934630499958</v>
       </c>
+      <c r="BD141" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="142" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>7</v>
       </c>
@@ -25480,8 +26047,12 @@
       <c r="BC142">
         <v>-71.544116120499936</v>
       </c>
+      <c r="BD142" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="143" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>8</v>
       </c>
@@ -25647,8 +26218,12 @@
       <c r="BC143">
         <v>-72.950829239200118</v>
       </c>
+      <c r="BD143" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="144" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>8</v>
       </c>
@@ -25814,8 +26389,12 @@
       <c r="BC144">
         <v>-73.125584144399951</v>
       </c>
+      <c r="BD144" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>8</v>
       </c>
@@ -25981,8 +26560,12 @@
       <c r="BC145">
         <v>-73.005186967599968</v>
       </c>
+      <c r="BD145" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="146" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>8</v>
       </c>
@@ -26148,8 +26731,12 @@
       <c r="BC146">
         <v>-72.717799852899915</v>
       </c>
+      <c r="BD146" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="147" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>8</v>
       </c>
@@ -26315,8 +26902,12 @@
       <c r="BC147">
         <v>-72.87103495869998</v>
       </c>
+      <c r="BD147" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="148" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>8</v>
       </c>
@@ -26482,8 +27073,12 @@
       <c r="BC148">
         <v>-73.104958492800023</v>
       </c>
+      <c r="BD148" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="149" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>8</v>
       </c>
@@ -26649,8 +27244,12 @@
       <c r="BC149">
         <v>-72.943744084399952</v>
       </c>
+      <c r="BD149" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="150" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>8</v>
       </c>
@@ -26816,8 +27415,12 @@
       <c r="BC150">
         <v>-73.09847666499995</v>
       </c>
+      <c r="BD150" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="151" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>8</v>
       </c>
@@ -26983,8 +27586,12 @@
       <c r="BC151">
         <v>-72.960055816200068</v>
       </c>
+      <c r="BD151" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="152" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>8</v>
       </c>
@@ -27150,8 +27757,12 @@
       <c r="BC152">
         <v>-73.099437087999945</v>
       </c>
+      <c r="BD152" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="153" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>8</v>
       </c>
@@ -27317,8 +27928,12 @@
       <c r="BC153">
         <v>-72.858050109900077</v>
       </c>
+      <c r="BD153" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="154" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -27484,8 +28099,12 @@
       <c r="BC154">
         <v>-73.141186622000035</v>
       </c>
+      <c r="BD154" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="155" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>8</v>
       </c>
@@ -27651,8 +28270,12 @@
       <c r="BC155">
         <v>-73.589869735400029</v>
       </c>
+      <c r="BD155" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="156" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8</v>
       </c>
@@ -27818,8 +28441,12 @@
       <c r="BC156">
         <v>-73.399806009099947</v>
       </c>
+      <c r="BD156" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="157" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>8</v>
       </c>
@@ -27985,8 +28612,12 @@
       <c r="BC157">
         <v>-73.317301187600023</v>
       </c>
+      <c r="BD157" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="158" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8</v>
       </c>
@@ -28152,8 +28783,12 @@
       <c r="BC158">
         <v>-73.211964776900004</v>
       </c>
+      <c r="BD158" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="159" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8</v>
       </c>
@@ -28319,8 +28954,12 @@
       <c r="BC159">
         <v>-73.235645582200036</v>
       </c>
+      <c r="BD159" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="160" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>8</v>
       </c>
@@ -28486,8 +29125,12 @@
       <c r="BC160">
         <v>-73.356941352800021</v>
       </c>
+      <c r="BD160" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="161" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8</v>
       </c>
@@ -28653,8 +29296,12 @@
       <c r="BC161">
         <v>-73.394405278399987</v>
       </c>
+      <c r="BD161" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="162" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>8</v>
       </c>
@@ -28820,8 +29467,12 @@
       <c r="BC162">
         <v>-72.327429999499969</v>
       </c>
+      <c r="BD162" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="163" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8</v>
       </c>
@@ -28987,8 +29638,12 @@
       <c r="BC163">
         <v>-71.367032593900021</v>
       </c>
+      <c r="BD163" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="164" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>8</v>
       </c>
@@ -29154,8 +29809,12 @@
       <c r="BC164">
         <v>-72.381359900599904</v>
       </c>
+      <c r="BD164" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="165" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8</v>
       </c>
@@ -29321,8 +29980,12 @@
       <c r="BC165">
         <v>-72.582533010399956</v>
       </c>
+      <c r="BD165" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="166" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8</v>
       </c>
@@ -29488,8 +30151,12 @@
       <c r="BC166">
         <v>-72.097788240199989</v>
       </c>
+      <c r="BD166" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="167" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>8</v>
       </c>
@@ -29655,8 +30322,12 @@
       <c r="BC167">
         <v>-72.823547161000036</v>
       </c>
+      <c r="BD167" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="168" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8</v>
       </c>
@@ -29822,8 +30493,12 @@
       <c r="BC168">
         <v>-72.576360692499989</v>
       </c>
+      <c r="BD168" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="169" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>8</v>
       </c>
@@ -29989,8 +30664,12 @@
       <c r="BC169">
         <v>-71.70568143269999</v>
       </c>
+      <c r="BD169" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="170" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>8</v>
       </c>
@@ -30156,8 +30835,12 @@
       <c r="BC170">
         <v>-71.861546375399953</v>
       </c>
+      <c r="BD170" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="171" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
@@ -30323,8 +31006,12 @@
       <c r="BC171">
         <v>-72.721258143600011</v>
       </c>
+      <c r="BD171" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="172" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>8</v>
       </c>
@@ -30490,8 +31177,12 @@
       <c r="BC172">
         <v>-71.748205927399965</v>
       </c>
+      <c r="BD172" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="173" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>8</v>
       </c>
@@ -30657,8 +31348,12 @@
       <c r="BC173">
         <v>-71.744348802699989</v>
       </c>
+      <c r="BD173" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="174" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>8</v>
       </c>
@@ -30824,8 +31519,12 @@
       <c r="BC174">
         <v>-72.616051762000083</v>
       </c>
+      <c r="BD174" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="175" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>8</v>
       </c>
@@ -30991,8 +31690,12 @@
       <c r="BC175">
         <v>-71.347449991700017</v>
       </c>
+      <c r="BD175" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="176" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>9</v>
       </c>
@@ -31158,8 +31861,12 @@
       <c r="BC176">
         <v>-72.66776718889983</v>
       </c>
+      <c r="BD176" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="177" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>9</v>
       </c>
@@ -31325,8 +32032,12 @@
       <c r="BC177">
         <v>-73.269556896900127</v>
       </c>
+      <c r="BD177" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="178" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>9</v>
       </c>
@@ -31492,8 +32203,12 @@
       <c r="BC178">
         <v>-71.992299397100012</v>
       </c>
+      <c r="BD178" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="179" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>9</v>
       </c>
@@ -31659,8 +32374,12 @@
       <c r="BC179">
         <v>-71.539156345400002</v>
       </c>
+      <c r="BD179" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="180" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>9</v>
       </c>
@@ -31826,8 +32545,12 @@
       <c r="BC180">
         <v>-72.576304070400042</v>
       </c>
+      <c r="BD180" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="181" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>9</v>
       </c>
@@ -31993,8 +32716,12 @@
       <c r="BC181">
         <v>-72.791728308200078</v>
       </c>
+      <c r="BD181" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="182" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>9</v>
       </c>
@@ -32160,8 +32887,12 @@
       <c r="BC182">
         <v>-72.669618654999908</v>
       </c>
+      <c r="BD182" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="183" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>9</v>
       </c>
@@ -32327,8 +33058,12 @@
       <c r="BC183">
         <v>-72.289099196999913</v>
       </c>
+      <c r="BD183" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="184" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>9</v>
       </c>
@@ -32494,8 +33229,12 @@
       <c r="BC184">
         <v>-72.582914162800051</v>
       </c>
+      <c r="BD184" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="185" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>9</v>
       </c>
@@ -32661,8 +33400,12 @@
       <c r="BC185">
         <v>-71.610892467800028</v>
       </c>
+      <c r="BD185" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="186" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9</v>
       </c>
@@ -32828,8 +33571,12 @@
       <c r="BC186">
         <v>-72.972061085099995</v>
       </c>
+      <c r="BD186" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="187" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -32995,8 +33742,12 @@
       <c r="BC187">
         <v>-72.578841191500018</v>
       </c>
+      <c r="BD187" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="188" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9</v>
       </c>
@@ -33162,8 +33913,12 @@
       <c r="BC188">
         <v>-72.436635941199967</v>
       </c>
+      <c r="BD188" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="189" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9</v>
       </c>
@@ -33329,8 +34084,12 @@
       <c r="BC189">
         <v>-72.663809254299949</v>
       </c>
+      <c r="BD189" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="190" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9</v>
       </c>
@@ -33496,8 +34255,12 @@
       <c r="BC190">
         <v>-71.79124648180003</v>
       </c>
+      <c r="BD190" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="191" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9</v>
       </c>
@@ -33663,8 +34426,12 @@
       <c r="BC191">
         <v>-73.295537762500018</v>
       </c>
+      <c r="BD191" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="192" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9</v>
       </c>
@@ -33830,8 +34597,12 @@
       <c r="BC192">
         <v>-73.127486565800055</v>
       </c>
+      <c r="BD192" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="193" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -33997,8 +34768,12 @@
       <c r="BC193">
         <v>-73.065775374000054</v>
       </c>
+      <c r="BD193" t="str">
+        <f t="shared" si="2"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="194" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9</v>
       </c>
@@ -34164,8 +34939,12 @@
       <c r="BC194">
         <v>-72.116504653999996</v>
       </c>
+      <c r="BD194" t="str">
+        <f t="shared" si="2"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="195" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9</v>
       </c>
@@ -34331,8 +35110,12 @@
       <c r="BC195">
         <v>-72.182830967400079</v>
       </c>
+      <c r="BD195" t="str">
+        <f t="shared" ref="BD195:BD258" si="3">IF(I195&gt;J195, "#1381c0", "#f632a3")</f>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="196" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9</v>
       </c>
@@ -34498,8 +35281,12 @@
       <c r="BC196">
         <v>-72.902387285100005</v>
       </c>
+      <c r="BD196" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="197" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9</v>
       </c>
@@ -34665,8 +35452,12 @@
       <c r="BC197">
         <v>-72.79571425269998</v>
       </c>
+      <c r="BD197" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="198" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>9</v>
       </c>
@@ -34832,8 +35623,12 @@
       <c r="BC198">
         <v>-72.124782388199961</v>
       </c>
+      <c r="BD198" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="199" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9</v>
       </c>
@@ -34999,8 +35794,12 @@
       <c r="BC199">
         <v>-71.772070218099998</v>
       </c>
+      <c r="BD199" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="200" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>9</v>
       </c>
@@ -35166,8 +35965,12 @@
       <c r="BC200">
         <v>-72.353137489199995</v>
       </c>
+      <c r="BD200" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="201" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>9</v>
       </c>
@@ -35333,8 +36136,12 @@
       <c r="BC201">
         <v>-71.239741014800046</v>
       </c>
+      <c r="BD201" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="202" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>9</v>
       </c>
@@ -35500,8 +36307,12 @@
       <c r="BC202">
         <v>-72.796906839600041</v>
       </c>
+      <c r="BD202" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="203" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>9</v>
       </c>
@@ -35667,8 +36478,12 @@
       <c r="BC203">
         <v>-73.045700527900081</v>
       </c>
+      <c r="BD203" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="204" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>9</v>
       </c>
@@ -35834,8 +36649,12 @@
       <c r="BC204">
         <v>-73.050421171099984</v>
       </c>
+      <c r="BD204" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="205" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>9</v>
       </c>
@@ -36001,8 +36820,12 @@
       <c r="BC205">
         <v>-72.575591038099958</v>
       </c>
+      <c r="BD205" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="206" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9</v>
       </c>
@@ -36168,8 +36991,12 @@
       <c r="BC206">
         <v>-72.654981007300094</v>
       </c>
+      <c r="BD206" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="207" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9</v>
       </c>
@@ -36335,8 +37162,12 @@
       <c r="BC207">
         <v>-72.233593646100189</v>
       </c>
+      <c r="BD207" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="208" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>10</v>
       </c>
@@ -36502,8 +37333,12 @@
       <c r="BC208">
         <v>-72.795581324100013</v>
       </c>
+      <c r="BD208" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="209" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>10</v>
       </c>
@@ -36669,8 +37504,12 @@
       <c r="BC209">
         <v>-73.19486868810003</v>
       </c>
+      <c r="BD209" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="210" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>10</v>
       </c>
@@ -36836,8 +37675,12 @@
       <c r="BC210">
         <v>-72.091708107599985</v>
       </c>
+      <c r="BD210" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="211" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>10</v>
       </c>
@@ -37003,8 +37846,12 @@
       <c r="BC211">
         <v>-73.606720067500035</v>
       </c>
+      <c r="BD211" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="212" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>10</v>
       </c>
@@ -37170,8 +38017,12 @@
       <c r="BC212">
         <v>-73.095917038699994</v>
       </c>
+      <c r="BD212" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="213" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>10</v>
       </c>
@@ -37337,8 +38188,12 @@
       <c r="BC213">
         <v>-73.581832386899904</v>
       </c>
+      <c r="BD213" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="214" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>10</v>
       </c>
@@ -37504,8 +38359,12 @@
       <c r="BC214">
         <v>-73.139659641799938</v>
       </c>
+      <c r="BD214" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="215" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>10</v>
       </c>
@@ -37671,8 +38530,12 @@
       <c r="BC215">
         <v>-73.502686080099949</v>
       </c>
+      <c r="BD215" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="216" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>10</v>
       </c>
@@ -37838,8 +38701,12 @@
       <c r="BC216">
         <v>-72.388110708699983</v>
       </c>
+      <c r="BD216" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="217" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>10</v>
       </c>
@@ -38005,8 +38872,12 @@
       <c r="BC217">
         <v>-73.804619129699958</v>
       </c>
+      <c r="BD217" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="218" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>10</v>
       </c>
@@ -38172,8 +39043,12 @@
       <c r="BC218">
         <v>-73.801317811499928</v>
       </c>
+      <c r="BD218" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="219" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>10</v>
       </c>
@@ -38339,8 +39214,12 @@
       <c r="BC219">
         <v>-73.930602576099901</v>
       </c>
+      <c r="BD219" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="220" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>10</v>
       </c>
@@ -38506,8 +39385,12 @@
       <c r="BC220">
         <v>-73.578687257200016</v>
       </c>
+      <c r="BD220" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="221" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>10</v>
       </c>
@@ -38673,8 +39556,12 @@
       <c r="BC221">
         <v>-73.833295225299977</v>
       </c>
+      <c r="BD221" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="222" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>10</v>
       </c>
@@ -38840,8 +39727,12 @@
       <c r="BC222">
         <v>-73.637093111200002</v>
       </c>
+      <c r="BD222" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="223" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>10</v>
       </c>
@@ -39007,8 +39898,12 @@
       <c r="BC223">
         <v>-73.564344052199957</v>
       </c>
+      <c r="BD223" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="224" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>10</v>
       </c>
@@ -39174,8 +40069,12 @@
       <c r="BC224">
         <v>-73.993929661499948</v>
       </c>
+      <c r="BD224" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="225" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>10</v>
       </c>
@@ -39341,8 +40240,12 @@
       <c r="BC225">
         <v>-73.411498636100049</v>
       </c>
+      <c r="BD225" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="226" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>10</v>
       </c>
@@ -39508,8 +40411,12 @@
       <c r="BC226">
         <v>-73.358922783299988</v>
       </c>
+      <c r="BD226" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="227" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>10</v>
       </c>
@@ -39675,8 +40582,12 @@
       <c r="BC227">
         <v>-73.086745366200148</v>
       </c>
+      <c r="BD227" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="228" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>10</v>
       </c>
@@ -39842,8 +40753,12 @@
       <c r="BC228">
         <v>-72.599686167399938</v>
       </c>
+      <c r="BD228" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="229" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>10</v>
       </c>
@@ -40009,8 +40924,12 @@
       <c r="BC229">
         <v>-73.457915609899942</v>
       </c>
+      <c r="BD229" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="230" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>10</v>
       </c>
@@ -40176,8 +41095,12 @@
       <c r="BC230">
         <v>-72.384008281000092</v>
       </c>
+      <c r="BD230" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="231" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>10</v>
       </c>
@@ -40343,8 +41266,12 @@
       <c r="BC231">
         <v>-73.417698151899941</v>
       </c>
+      <c r="BD231" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="232" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>10</v>
       </c>
@@ -40510,8 +41437,12 @@
       <c r="BC232">
         <v>-73.559195254900018</v>
       </c>
+      <c r="BD232" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="233" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>10</v>
       </c>
@@ -40677,8 +41608,12 @@
       <c r="BC233">
         <v>-73.161679338700111</v>
       </c>
+      <c r="BD233" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="234" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>10</v>
       </c>
@@ -40844,8 +41779,12 @@
       <c r="BC234">
         <v>-72.575826723099951</v>
       </c>
+      <c r="BD234" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="235" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>10</v>
       </c>
@@ -41011,8 +41950,12 @@
       <c r="BC235">
         <v>-72.007171885500014</v>
       </c>
+      <c r="BD235" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="236" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>10</v>
       </c>
@@ -41178,8 +42121,12 @@
       <c r="BC236">
         <v>-72.377516028900061</v>
       </c>
+      <c r="BD236" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="237" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>10</v>
       </c>
@@ -41345,8 +42292,12 @@
       <c r="BC237">
         <v>-71.983577704099986</v>
       </c>
+      <c r="BD237" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="238" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>11</v>
       </c>
@@ -41512,8 +42463,12 @@
       <c r="BC238">
         <v>-71.991736990000049</v>
       </c>
+      <c r="BD238" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="239" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>11</v>
       </c>
@@ -41679,8 +42634,12 @@
       <c r="BC239">
         <v>-71.834282380900007</v>
       </c>
+      <c r="BD239" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="240" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>11</v>
       </c>
@@ -41846,8 +42805,12 @@
       <c r="BC240">
         <v>-73.765003751000137</v>
       </c>
+      <c r="BD240" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="241" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>11</v>
       </c>
@@ -42013,8 +42976,12 @@
       <c r="BC241">
         <v>-73.13713989729996</v>
       </c>
+      <c r="BD241" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="242" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>11</v>
       </c>
@@ -42180,8 +43147,12 @@
       <c r="BC242">
         <v>-73.837636295999999</v>
       </c>
+      <c r="BD242" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="243" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>11</v>
       </c>
@@ -42347,8 +43318,12 @@
       <c r="BC243">
         <v>-72.743623120899969</v>
       </c>
+      <c r="BD243" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="244" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>11</v>
       </c>
@@ -42514,8 +43489,12 @@
       <c r="BC244">
         <v>-72.909027119300006</v>
       </c>
+      <c r="BD244" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="245" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>11</v>
       </c>
@@ -42681,8 +43660,12 @@
       <c r="BC245">
         <v>-74.167202913400004</v>
       </c>
+      <c r="BD245" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="246" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>11</v>
       </c>
@@ -42848,8 +43831,12 @@
       <c r="BC246">
         <v>-72.586427803999996</v>
       </c>
+      <c r="BD246" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="247" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>11</v>
       </c>
@@ -43015,8 +44002,12 @@
       <c r="BC247">
         <v>-72.487546273099966</v>
       </c>
+      <c r="BD247" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="248" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>12</v>
       </c>
@@ -43182,8 +44173,12 @@
       <c r="BC248">
         <v>-72.025446149799876</v>
       </c>
+      <c r="BD248" t="str">
+        <f t="shared" si="3"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="249" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>12</v>
       </c>
@@ -43349,8 +44344,12 @@
       <c r="BC249">
         <v>-71.240349025599997</v>
       </c>
+      <c r="BD249" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="250" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>12</v>
       </c>
@@ -43516,8 +44515,12 @@
       <c r="BC250">
         <v>-72.457360026699988</v>
       </c>
+      <c r="BD250" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="251" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>12</v>
       </c>
@@ -43683,8 +44686,12 @@
       <c r="BC251">
         <v>-70.195972467799976</v>
       </c>
+      <c r="BD251" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="252" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>12</v>
       </c>
@@ -43850,8 +44857,12 @@
       <c r="BC252">
         <v>-69.267611448700009</v>
       </c>
+      <c r="BD252" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="253" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>12</v>
       </c>
@@ -44017,8 +45028,12 @@
       <c r="BC253">
         <v>-69.380093201599976</v>
       </c>
+      <c r="BD253" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="254" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>12</v>
       </c>
@@ -44184,8 +45199,12 @@
       <c r="BC254">
         <v>-69.329682782899994</v>
       </c>
+      <c r="BD254" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="255" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>12</v>
       </c>
@@ -44351,8 +45370,12 @@
       <c r="BC255">
         <v>-69.534333911100006</v>
       </c>
+      <c r="BD255" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="256" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>12</v>
       </c>
@@ -44518,8 +45541,12 @@
       <c r="BC256">
         <v>-73.983457553199983</v>
       </c>
+      <c r="BD256" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="257" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>12</v>
       </c>
@@ -44685,8 +45712,12 @@
       <c r="BC257">
         <v>-72.813776935299998</v>
       </c>
+      <c r="BD257" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="258" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>13</v>
       </c>
@@ -44852,8 +45883,12 @@
       <c r="BC258">
         <v>-70.65695439649987</v>
       </c>
+      <c r="BD258" t="str">
+        <f t="shared" si="3"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="259" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>13</v>
       </c>
@@ -45019,8 +46054,12 @@
       <c r="BC259">
         <v>-70.71254357899997</v>
       </c>
+      <c r="BD259" t="str">
+        <f t="shared" ref="BD259:BD322" si="4">IF(I259&gt;J259, "#1381c0", "#f632a3")</f>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="260" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>13</v>
       </c>
@@ -45186,8 +46225,12 @@
       <c r="BC260">
         <v>-70.744586932100006</v>
       </c>
+      <c r="BD260" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="261" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>13</v>
       </c>
@@ -45353,8 +46396,12 @@
       <c r="BC261">
         <v>-70.676905441900047</v>
       </c>
+      <c r="BD261" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="262" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>13</v>
       </c>
@@ -45520,8 +46567,12 @@
       <c r="BC262">
         <v>-70.676306736700056</v>
       </c>
+      <c r="BD262" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="263" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>13</v>
       </c>
@@ -45687,8 +46738,12 @@
       <c r="BC263">
         <v>-70.70098920679996</v>
       </c>
+      <c r="BD263" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="264" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>13</v>
       </c>
@@ -45854,8 +46909,12 @@
       <c r="BC264">
         <v>-70.638209706200016</v>
       </c>
+      <c r="BD264" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="265" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>13</v>
       </c>
@@ -46021,8 +47080,12 @@
       <c r="BC265">
         <v>-70.665285466099988</v>
       </c>
+      <c r="BD265" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="266" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>13</v>
       </c>
@@ -46188,8 +47251,12 @@
       <c r="BC266">
         <v>-70.663994216299969</v>
       </c>
+      <c r="BD266" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="267" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>13</v>
       </c>
@@ -46355,8 +47422,12 @@
       <c r="BC267">
         <v>-70.539974118800089</v>
       </c>
+      <c r="BD267" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="268" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>13</v>
       </c>
@@ -46522,8 +47593,12 @@
       <c r="BC268">
         <v>-70.622626265799965</v>
       </c>
+      <c r="BD268" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="269" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>13</v>
       </c>
@@ -46689,8 +47764,12 @@
       <c r="BC269">
         <v>-70.637251912200057</v>
       </c>
+      <c r="BD269" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="270" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>13</v>
       </c>
@@ -46856,8 +47935,12 @@
       <c r="BC270">
         <v>-70.536897328599977</v>
       </c>
+      <c r="BD270" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="271" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>13</v>
       </c>
@@ -47023,8 +48106,12 @@
       <c r="BC271">
         <v>-70.501317399100088</v>
       </c>
+      <c r="BD271" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="272" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>13</v>
       </c>
@@ -47190,8 +48277,12 @@
       <c r="BC272">
         <v>-70.368613204899987</v>
       </c>
+      <c r="BD272" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="273" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>13</v>
       </c>
@@ -47357,8 +48448,12 @@
       <c r="BC273">
         <v>-70.69000835449998</v>
       </c>
+      <c r="BD273" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="274" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>13</v>
       </c>
@@ -47524,8 +48619,12 @@
       <c r="BC274">
         <v>-70.723207437400049</v>
       </c>
+      <c r="BD274" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="275" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>13</v>
       </c>
@@ -47691,8 +48790,12 @@
       <c r="BC275">
         <v>-70.600315828600031</v>
       </c>
+      <c r="BD275" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="276" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>13</v>
       </c>
@@ -47858,8 +48961,12 @@
       <c r="BC276">
         <v>-70.809757554799958</v>
       </c>
+      <c r="BD276" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="277" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>13</v>
       </c>
@@ -48025,8 +49132,12 @@
       <c r="BC277">
         <v>-70.599127450700024</v>
       </c>
+      <c r="BD277" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="278" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>13</v>
       </c>
@@ -48192,8 +49303,12 @@
       <c r="BC278">
         <v>-70.675652943300022</v>
       </c>
+      <c r="BD278" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="279" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>13</v>
       </c>
@@ -48359,8 +49474,12 @@
       <c r="BC279">
         <v>-70.52549768500009</v>
       </c>
+      <c r="BD279" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="280" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>13</v>
       </c>
@@ -48526,8 +49645,12 @@
       <c r="BC280">
         <v>-70.612442750200003</v>
       </c>
+      <c r="BD280" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="281" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>13</v>
       </c>
@@ -48693,8 +49816,12 @@
       <c r="BC281">
         <v>-70.85483581340003</v>
       </c>
+      <c r="BD281" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="282" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>13</v>
       </c>
@@ -48860,8 +49987,12 @@
       <c r="BC282">
         <v>-70.735419065899933</v>
       </c>
+      <c r="BD282" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="283" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>13</v>
       </c>
@@ -49027,8 +50158,12 @@
       <c r="BC283">
         <v>-70.701374541200025</v>
       </c>
+      <c r="BD283" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="284" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>13</v>
       </c>
@@ -49194,8 +50329,12 @@
       <c r="BC284">
         <v>-70.639586954900054</v>
       </c>
+      <c r="BD284" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="285" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>13</v>
       </c>
@@ -49361,8 +50500,12 @@
       <c r="BC285">
         <v>-70.727935171999931</v>
       </c>
+      <c r="BD285" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="286" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>13</v>
       </c>
@@ -49528,8 +50671,12 @@
       <c r="BC286">
         <v>-70.62870059209996</v>
       </c>
+      <c r="BD286" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="287" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>13</v>
       </c>
@@ -49695,8 +50842,12 @@
       <c r="BC287">
         <v>-70.651776464299985</v>
       </c>
+      <c r="BD287" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="288" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>13</v>
       </c>
@@ -49862,8 +51013,12 @@
       <c r="BC288">
         <v>-70.64231531259999</v>
       </c>
+      <c r="BD288" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="289" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>13</v>
       </c>
@@ -50029,8 +51184,12 @@
       <c r="BC289">
         <v>-70.573130419099982</v>
       </c>
+      <c r="BD289" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="290" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>13</v>
       </c>
@@ -50196,8 +51355,12 @@
       <c r="BC290">
         <v>-70.557982020900269</v>
       </c>
+      <c r="BD290" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="291" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>13</v>
       </c>
@@ -50363,8 +51526,12 @@
       <c r="BC291">
         <v>-70.506829478699984</v>
       </c>
+      <c r="BD291" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="292" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>13</v>
       </c>
@@ -50530,8 +51697,12 @@
       <c r="BC292">
         <v>-70.096507170899955</v>
       </c>
+      <c r="BD292" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="293" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>13</v>
       </c>
@@ -50697,8 +51868,12 @@
       <c r="BC293">
         <v>-70.616098163900048</v>
       </c>
+      <c r="BD293" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="294" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>13</v>
       </c>
@@ -50864,8 +52039,12 @@
       <c r="BC294">
         <v>-70.875159528599951</v>
       </c>
+      <c r="BD294" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="295" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>13</v>
       </c>
@@ -51031,8 +52210,12 @@
       <c r="BC295">
         <v>-70.876188423500011</v>
       </c>
+      <c r="BD295" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="296" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>13</v>
       </c>
@@ -51198,8 +52381,12 @@
       <c r="BC296">
         <v>-70.724181018000067</v>
       </c>
+      <c r="BD296" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="297" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>13</v>
       </c>
@@ -51365,8 +52552,12 @@
       <c r="BC297">
         <v>-70.738942242900038</v>
       </c>
+      <c r="BD297" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="298" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>13</v>
       </c>
@@ -51532,8 +52723,12 @@
       <c r="BC298">
         <v>-70.790228533599972</v>
       </c>
+      <c r="BD298" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="299" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>13</v>
       </c>
@@ -51699,8 +52894,12 @@
       <c r="BC299">
         <v>-70.758313701299926</v>
       </c>
+      <c r="BD299" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="300" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>13</v>
       </c>
@@ -51866,8 +53065,12 @@
       <c r="BC300">
         <v>-71.193690481900106</v>
       </c>
+      <c r="BD300" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="301" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>13</v>
       </c>
@@ -52033,8 +53236,12 @@
       <c r="BC301">
         <v>-71.056442506400003</v>
       </c>
+      <c r="BD301" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="302" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>13</v>
       </c>
@@ -52200,8 +53407,12 @@
       <c r="BC302">
         <v>-71.080131587799912</v>
       </c>
+      <c r="BD302" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="303" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>13</v>
       </c>
@@ -52367,8 +53578,12 @@
       <c r="BC303">
         <v>-71.210400358100031</v>
       </c>
+      <c r="BD303" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="304" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>13</v>
       </c>
@@ -52534,8 +53749,12 @@
       <c r="BC304">
         <v>-71.452710328900039</v>
       </c>
+      <c r="BD304" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="305" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>13</v>
       </c>
@@ -52701,8 +53920,12 @@
       <c r="BC305">
         <v>-70.895448837899963</v>
       </c>
+      <c r="BD305" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="306" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>13</v>
       </c>
@@ -52868,8 +54091,12 @@
       <c r="BC306">
         <v>-71.0335418234</v>
       </c>
+      <c r="BD306" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="307" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>13</v>
       </c>
@@ -53035,8 +54262,12 @@
       <c r="BC307">
         <v>-70.945911622299974</v>
       </c>
+      <c r="BD307" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="308" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>13</v>
       </c>
@@ -53202,8 +54433,12 @@
       <c r="BC308">
         <v>-70.871007349099969</v>
       </c>
+      <c r="BD308" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="309" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>13</v>
       </c>
@@ -53369,8 +54604,12 @@
       <c r="BC309">
         <v>-70.893747194899987</v>
       </c>
+      <c r="BD309" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="310" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14</v>
       </c>
@@ -53536,8 +54775,12 @@
       <c r="BC310">
         <v>-73.174690886399901</v>
       </c>
+      <c r="BD310" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="311" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>14</v>
       </c>
@@ -53703,8 +54946,12 @@
       <c r="BC311">
         <v>-73.37161333120001</v>
       </c>
+      <c r="BD311" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="312" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>14</v>
       </c>
@@ -53870,8 +55117,12 @@
       <c r="BC312">
         <v>-72.621518845799997</v>
       </c>
+      <c r="BD312" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="313" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>14</v>
       </c>
@@ -54037,8 +55288,12 @@
       <c r="BC313">
         <v>-72.554675567899963</v>
       </c>
+      <c r="BD313" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="314" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>14</v>
       </c>
@@ -54204,8 +55459,12 @@
       <c r="BC314">
         <v>-72.863908759899971</v>
       </c>
+      <c r="BD314" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="315" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>14</v>
       </c>
@@ -54371,8 +55630,12 @@
       <c r="BC315">
         <v>-73.019228236499984</v>
       </c>
+      <c r="BD315" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="316" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>14</v>
       </c>
@@ -54538,8 +55801,12 @@
       <c r="BC316">
         <v>-72.84344156960006</v>
       </c>
+      <c r="BD316" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="317" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>14</v>
       </c>
@@ -54705,8 +55972,12 @@
       <c r="BC317">
         <v>-72.029744137899868</v>
       </c>
+      <c r="BD317" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="318" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>14</v>
       </c>
@@ -54872,8 +56143,12 @@
       <c r="BC318">
         <v>-73.22232108489996</v>
       </c>
+      <c r="BD318" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="319" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14</v>
       </c>
@@ -55039,8 +56314,12 @@
       <c r="BC319">
         <v>-72.116004819500063</v>
       </c>
+      <c r="BD319" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="320" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>14</v>
       </c>
@@ -55206,8 +56485,12 @@
       <c r="BC320">
         <v>-72.166166016299954</v>
       </c>
+      <c r="BD320" t="str">
+        <f t="shared" si="4"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="321" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>14</v>
       </c>
@@ -55373,8 +56656,12 @@
       <c r="BC321">
         <v>-72.53543959299995</v>
       </c>
+      <c r="BD321" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="322" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>15</v>
       </c>
@@ -55540,8 +56827,12 @@
       <c r="BC322">
         <v>-69.971491087099892</v>
       </c>
+      <c r="BD322" t="str">
+        <f t="shared" si="4"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="323" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>15</v>
       </c>
@@ -55707,8 +56998,12 @@
       <c r="BC323">
         <v>-69.714056392299995</v>
       </c>
+      <c r="BD323" t="str">
+        <f t="shared" ref="BD323:BD346" si="5">IF(I323&gt;J323, "#1381c0", "#f632a3")</f>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="324" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>15</v>
       </c>
@@ -55874,8 +57169,12 @@
       <c r="BC324">
         <v>-69.31019307089997</v>
       </c>
+      <c r="BD324" t="str">
+        <f t="shared" si="5"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="325" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>15</v>
       </c>
@@ -56041,8 +57340,12 @@
       <c r="BC325">
         <v>-69.570722808300005</v>
       </c>
+      <c r="BD325" t="str">
+        <f t="shared" si="5"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="326" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>16</v>
       </c>
@@ -56208,8 +57511,12 @@
       <c r="BC326">
         <v>-72.128724431199842</v>
       </c>
+      <c r="BD326" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="327" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>16</v>
       </c>
@@ -56375,8 +57682,12 @@
       <c r="BC327">
         <v>-72.290021584200048</v>
       </c>
+      <c r="BD327" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="328" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>16</v>
       </c>
@@ -56542,8 +57853,12 @@
       <c r="BC328">
         <v>-72.198805179899992</v>
       </c>
+      <c r="BD328" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="329" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>16</v>
       </c>
@@ -56709,8 +58024,12 @@
       <c r="BC329">
         <v>-71.847110561599962</v>
       </c>
+      <c r="BD329" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="330" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>16</v>
       </c>
@@ -56876,8 +58195,12 @@
       <c r="BC330">
         <v>-72.067847537300025</v>
       </c>
+      <c r="BD330" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="331" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>16</v>
       </c>
@@ -57043,8 +58366,12 @@
       <c r="BC331">
         <v>-71.499944277200015</v>
       </c>
+      <c r="BD331" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="332" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>16</v>
       </c>
@@ -57210,8 +58537,12 @@
       <c r="BC332">
         <v>-72.501805471600022</v>
       </c>
+      <c r="BD332" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="333" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>16</v>
       </c>
@@ -57377,8 +58708,12 @@
       <c r="BC333">
         <v>-72.029401531399913</v>
       </c>
+      <c r="BD333" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="334" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>16</v>
       </c>
@@ -57544,8 +58879,12 @@
       <c r="BC334">
         <v>-71.930582932299941</v>
       </c>
+      <c r="BD334" t="str">
+        <f t="shared" si="5"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="335" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>16</v>
       </c>
@@ -57711,8 +59050,12 @@
       <c r="BC335">
         <v>-72.543647581699901</v>
       </c>
+      <c r="BD335" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="336" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>16</v>
       </c>
@@ -57878,8 +59221,12 @@
       <c r="BC336">
         <v>-72.720593369099916</v>
       </c>
+      <c r="BD336" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="337" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>16</v>
       </c>
@@ -58045,8 +59392,12 @@
       <c r="BC337">
         <v>-72.750423791499998</v>
       </c>
+      <c r="BD337" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="338" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>16</v>
       </c>
@@ -58212,8 +59563,12 @@
       <c r="BC338">
         <v>-72.409706764200052</v>
       </c>
+      <c r="BD338" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="339" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>16</v>
       </c>
@@ -58379,8 +59734,12 @@
       <c r="BC339">
         <v>-72.466638251399957</v>
       </c>
+      <c r="BD339" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="340" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>16</v>
       </c>
@@ -58546,8 +59905,12 @@
       <c r="BC340">
         <v>-72.587959764599987</v>
       </c>
+      <c r="BD340" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="341" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>16</v>
       </c>
@@ -58713,8 +60076,12 @@
       <c r="BC341">
         <v>-72.659787675199965</v>
       </c>
+      <c r="BD341" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="342" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>16</v>
       </c>
@@ -58880,8 +60247,12 @@
       <c r="BC342">
         <v>-72.019057169000007</v>
       </c>
+      <c r="BD342" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="343" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>16</v>
       </c>
@@ -59047,8 +60418,12 @@
       <c r="BC343">
         <v>-71.58173713609996</v>
       </c>
+      <c r="BD343" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
+      </c>
     </row>
-    <row r="344" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>16</v>
       </c>
@@ -59214,8 +60589,12 @@
       <c r="BC344">
         <v>-71.897904073899994</v>
       </c>
+      <c r="BD344" t="str">
+        <f t="shared" si="5"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="345" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>16</v>
       </c>
@@ -59381,8 +60760,12 @@
       <c r="BC345">
         <v>-71.287756591299981</v>
       </c>
+      <c r="BD345" t="str">
+        <f t="shared" si="5"/>
+        <v>#1381c0</v>
+      </c>
     </row>
-    <row r="346" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>16</v>
       </c>
@@ -59547,6 +60930,10 @@
       </c>
       <c r="BC346">
         <v>-72.228381781699966</v>
+      </c>
+      <c r="BD346" t="str">
+        <f t="shared" si="5"/>
+        <v>#f632a3</v>
       </c>
     </row>
   </sheetData>
